--- a/lib/PHPExcel/templates/OT_PS.xlsx
+++ b/lib/PHPExcel/templates/OT_PS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E0DBA-5645-4416-9016-28DFC6E74F2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="12810"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OT PS" sheetId="1" r:id="rId1"/>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
@@ -992,6 +993,19 @@
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1048,24 +1062,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Milliers 2" xfId="1"/>
+    <cellStyle name="Milliers 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,16 +1099,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>305360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>64995</xdr:rowOff>
+      <xdr:colOff>322569</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1144" name="Picture 1" descr="Logo Metcut">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECBE952-1A97-42BE-A4B5-07ECA768F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2030F8DA-AF8A-42B8-9749-9856C85564AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,15 +1132,12 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="857250" cy="771525"/>
+          <a:ext cx="907676" cy="898009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1147,16 +1145,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1179,12 +1167,12 @@
       <sheetName val="SBER"/>
       <sheetName val="Safran AE"/>
       <sheetName val="Otto Fuchs"/>
+      <sheetName val="Listes"/>
+      <sheetName val="2016 W43"/>
       <sheetName val="Usinage MRI"/>
-      <sheetName val="Listes"/>
       <sheetName val="2016 W40"/>
+      <sheetName val="2016 W45"/>
       <sheetName val="2017 W01"/>
-      <sheetName val="2016 W43"/>
-      <sheetName val="2016 W45"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1202,8 +1190,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="9">
         <row r="3">
           <cell r="B3" t="str">
             <v>0            Forecast</v>
@@ -1228,6 +1215,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
@@ -1691,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:DI56"/>
   <sheetViews>
@@ -1865,162 +1853,162 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="108" t="str">
+      <c r="U2" s="118"/>
+      <c r="V2" s="113" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
       </c>
-      <c r="W2" s="109"/>
+      <c r="W2" s="114"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="101" t="s">
+      <c r="AD2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="108" t="str">
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="113" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
       </c>
-      <c r="AG2" s="109"/>
+      <c r="AG2" s="114"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="101" t="s">
+      <c r="AN2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="108" t="str">
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="113" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
       </c>
-      <c r="AQ2" s="109"/>
+      <c r="AQ2" s="114"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="101" t="s">
+      <c r="AX2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="108" t="str">
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="113" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
       </c>
-      <c r="BA2" s="109"/>
+      <c r="BA2" s="114"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="101" t="s">
+      <c r="BH2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="BI2" s="113"/>
-      <c r="BJ2" s="108" t="str">
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="113" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
       </c>
-      <c r="BK2" s="109"/>
+      <c r="BK2" s="114"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="101" t="s">
+      <c r="BR2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="108" t="str">
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="113" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
       </c>
-      <c r="BU2" s="109"/>
+      <c r="BU2" s="114"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="101" t="s">
+      <c r="CB2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="113"/>
-      <c r="CD2" s="108" t="str">
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="113" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
       </c>
-      <c r="CE2" s="109"/>
+      <c r="CE2" s="114"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="101" t="s">
+      <c r="CL2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="CM2" s="113"/>
-      <c r="CN2" s="108" t="str">
+      <c r="CM2" s="118"/>
+      <c r="CN2" s="113" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
       </c>
-      <c r="CO2" s="109"/>
+      <c r="CO2" s="114"/>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="101" t="s">
+      <c r="CV2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="CW2" s="113"/>
-      <c r="CX2" s="108" t="str">
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="113" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
       </c>
-      <c r="CY2" s="109"/>
+      <c r="CY2" s="114"/>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="101" t="s">
+      <c r="DF2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="DG2" s="113"/>
-      <c r="DH2" s="108" t="str">
+      <c r="DG2" s="118"/>
+      <c r="DH2" s="113" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
       </c>
-      <c r="DI2" s="109"/>
+      <c r="DI2" s="114"/>
     </row>
     <row r="3" spans="1:113" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -2032,140 +2020,140 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="110" t="str">
+      <c r="T3" s="108"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W3" s="111"/>
+      <c r="W3" s="116"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="110" t="str">
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG3" s="111"/>
+      <c r="AG3" s="116"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="110" t="str">
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="115" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="111"/>
+      <c r="AQ3" s="116"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="110" t="str">
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BA3" s="111"/>
+      <c r="BA3" s="116"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="110" t="str">
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="115" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK3" s="111"/>
+      <c r="BK3" s="116"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="110" t="str">
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="115" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BU3" s="111"/>
+      <c r="BU3" s="116"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="114"/>
-      <c r="CD3" s="110" t="str">
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="115" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="CE3" s="111"/>
+      <c r="CE3" s="116"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="114"/>
-      <c r="CN3" s="110" t="str">
+      <c r="CL3" s="108"/>
+      <c r="CM3" s="119"/>
+      <c r="CN3" s="115" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="CO3" s="111"/>
+      <c r="CO3" s="116"/>
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="114"/>
-      <c r="CX3" s="110" t="str">
+      <c r="CV3" s="108"/>
+      <c r="CW3" s="119"/>
+      <c r="CX3" s="115" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CY3" s="111"/>
+      <c r="CY3" s="116"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="103"/>
-      <c r="DG3" s="114"/>
-      <c r="DH3" s="110" t="str">
+      <c r="DF3" s="108"/>
+      <c r="DG3" s="119"/>
+      <c r="DH3" s="115" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="DI3" s="111"/>
+      <c r="DI3" s="116"/>
     </row>
     <row r="4" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2178,214 +2166,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
       <c r="M4" s="7"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="105" t="str">
+      <c r="Q4" s="110" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="105"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="107" t="str">
+      <c r="U4" s="112" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="107"/>
+      <c r="V4" s="112"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="105" t="str">
+      <c r="AA4" s="110" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="105"/>
+      <c r="AB4" s="110"/>
       <c r="AC4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="107" t="str">
+      <c r="AE4" s="112" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="107"/>
+      <c r="AF4" s="112"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="105" t="str">
+      <c r="AK4" s="110" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="105"/>
+      <c r="AL4" s="110"/>
       <c r="AM4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="107" t="str">
+      <c r="AO4" s="112" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="107"/>
+      <c r="AP4" s="112"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="105" t="str">
+      <c r="AU4" s="110" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="105"/>
+      <c r="AV4" s="110"/>
       <c r="AW4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="107" t="str">
+      <c r="AY4" s="112" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="107"/>
+      <c r="AZ4" s="112"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="105" t="str">
+      <c r="BE4" s="110" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="105"/>
+      <c r="BF4" s="110"/>
       <c r="BG4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="107" t="str">
+      <c r="BI4" s="112" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="107"/>
+      <c r="BJ4" s="112"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="105" t="str">
+      <c r="BO4" s="110" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="105"/>
+      <c r="BP4" s="110"/>
       <c r="BQ4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="107" t="str">
+      <c r="BS4" s="112" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="107"/>
+      <c r="BT4" s="112"/>
       <c r="BU4" s="7"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="105" t="str">
+      <c r="BY4" s="110" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="105"/>
+      <c r="BZ4" s="110"/>
       <c r="CA4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="107" t="str">
+      <c r="CC4" s="112" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="107"/>
+      <c r="CD4" s="112"/>
       <c r="CE4" s="7"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="105" t="str">
+      <c r="CI4" s="110" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="105"/>
+      <c r="CJ4" s="110"/>
       <c r="CK4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="107" t="str">
+      <c r="CM4" s="112" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="107"/>
+      <c r="CN4" s="112"/>
       <c r="CO4" s="7"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="105" t="str">
+      <c r="CS4" s="110" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="105"/>
+      <c r="CT4" s="110"/>
       <c r="CU4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="107" t="str">
+      <c r="CW4" s="112" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="107"/>
+      <c r="CX4" s="112"/>
       <c r="CY4" s="7"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="105" t="str">
+      <c r="DC4" s="110" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="105"/>
+      <c r="DD4" s="110"/>
       <c r="DE4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="107" t="str">
+      <c r="DG4" s="112" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="107"/>
+      <c r="DH4" s="112"/>
       <c r="DI4" s="7"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,214 +2385,214 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="7"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="116" t="str">
+      <c r="Q5" s="121" t="str">
         <f t="shared" ref="Q5:Q6" si="20">IF(ISBLANK(G5),"",G5)</f>
         <v/>
       </c>
-      <c r="R5" s="116"/>
+      <c r="R5" s="121"/>
       <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="117" t="str">
+      <c r="U5" s="122" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="117"/>
+      <c r="V5" s="122"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="116" t="str">
+      <c r="AA5" s="121" t="str">
         <f t="shared" ref="AA5:AA6" si="21">IF(ISBLANK(Q5),"",Q5)</f>
         <v/>
       </c>
-      <c r="AB5" s="116"/>
+      <c r="AB5" s="121"/>
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="117" t="str">
+      <c r="AE5" s="122" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="117"/>
+      <c r="AF5" s="122"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="116" t="str">
+      <c r="AK5" s="121" t="str">
         <f t="shared" ref="AK5:AK6" si="22">IF(ISBLANK(AA5),"",AA5)</f>
         <v/>
       </c>
-      <c r="AL5" s="116"/>
+      <c r="AL5" s="121"/>
       <c r="AM5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="117" t="str">
+      <c r="AO5" s="122" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="117"/>
+      <c r="AP5" s="122"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="116" t="str">
+      <c r="AU5" s="121" t="str">
         <f t="shared" ref="AU5:AU6" si="23">IF(ISBLANK(AK5),"",AK5)</f>
         <v/>
       </c>
-      <c r="AV5" s="116"/>
+      <c r="AV5" s="121"/>
       <c r="AW5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="117" t="str">
+      <c r="AY5" s="122" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="117"/>
+      <c r="AZ5" s="122"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="116" t="str">
+      <c r="BE5" s="121" t="str">
         <f t="shared" ref="BE5:BE6" si="24">IF(ISBLANK(AU5),"",AU5)</f>
         <v/>
       </c>
-      <c r="BF5" s="116"/>
+      <c r="BF5" s="121"/>
       <c r="BG5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="117" t="str">
+      <c r="BI5" s="122" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="117"/>
+      <c r="BJ5" s="122"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BN5" s="1"/>
-      <c r="BO5" s="116" t="str">
+      <c r="BO5" s="121" t="str">
         <f t="shared" ref="BO5:BO6" si="25">IF(ISBLANK(BE5),"",BE5)</f>
         <v/>
       </c>
-      <c r="BP5" s="116"/>
+      <c r="BP5" s="121"/>
       <c r="BQ5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="117" t="str">
+      <c r="BS5" s="122" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="117"/>
+      <c r="BT5" s="122"/>
       <c r="BU5" s="7"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="116" t="str">
+      <c r="BY5" s="121" t="str">
         <f t="shared" ref="BY5:BY6" si="26">IF(ISBLANK(BO5),"",BO5)</f>
         <v/>
       </c>
-      <c r="BZ5" s="116"/>
+      <c r="BZ5" s="121"/>
       <c r="CA5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="117" t="str">
+      <c r="CC5" s="122" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="117"/>
+      <c r="CD5" s="122"/>
       <c r="CE5" s="7"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CH5" s="1"/>
-      <c r="CI5" s="116" t="str">
+      <c r="CI5" s="121" t="str">
         <f t="shared" ref="CI5:CI6" si="27">IF(ISBLANK(BY5),"",BY5)</f>
         <v/>
       </c>
-      <c r="CJ5" s="116"/>
+      <c r="CJ5" s="121"/>
       <c r="CK5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="117" t="str">
+      <c r="CM5" s="122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="117"/>
+      <c r="CN5" s="122"/>
       <c r="CO5" s="7"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="116" t="str">
+      <c r="CS5" s="121" t="str">
         <f t="shared" ref="CS5:CS6" si="28">IF(ISBLANK(CI5),"",CI5)</f>
         <v/>
       </c>
-      <c r="CT5" s="116"/>
+      <c r="CT5" s="121"/>
       <c r="CU5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="117" t="str">
+      <c r="CW5" s="122" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="117"/>
+      <c r="CX5" s="122"/>
       <c r="CY5" s="7"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="116" t="str">
+      <c r="DC5" s="121" t="str">
         <f t="shared" ref="DC5:DC6" si="29">IF(ISBLANK(CS5),"",CS5)</f>
         <v/>
       </c>
-      <c r="DD5" s="116"/>
+      <c r="DD5" s="121"/>
       <c r="DE5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="117" t="str">
+      <c r="DG5" s="122" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="117"/>
+      <c r="DH5" s="122"/>
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,214 +2606,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="7"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="118" t="str">
+      <c r="Q6" s="123" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="118"/>
+      <c r="R6" s="123"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="117" t="str">
+      <c r="U6" s="122" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="117"/>
+      <c r="V6" s="122"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="118" t="str">
+      <c r="AA6" s="123" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="118"/>
+      <c r="AB6" s="123"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="117" t="str">
+      <c r="AE6" s="122" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="117"/>
+      <c r="AF6" s="122"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="118" t="str">
+      <c r="AK6" s="123" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="118"/>
+      <c r="AL6" s="123"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="117" t="str">
+      <c r="AO6" s="122" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="117"/>
+      <c r="AP6" s="122"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="118" t="str">
+      <c r="AU6" s="123" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="118"/>
+      <c r="AV6" s="123"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="117" t="str">
+      <c r="AY6" s="122" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="117"/>
+      <c r="AZ6" s="122"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="118" t="str">
+      <c r="BE6" s="123" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="118"/>
+      <c r="BF6" s="123"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="117" t="str">
+      <c r="BI6" s="122" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="117"/>
+      <c r="BJ6" s="122"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="118" t="str">
+      <c r="BO6" s="123" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="118"/>
+      <c r="BP6" s="123"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="117" t="str">
+      <c r="BS6" s="122" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="117"/>
+      <c r="BT6" s="122"/>
       <c r="BU6" s="7"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="118" t="str">
+      <c r="BY6" s="123" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="118"/>
+      <c r="BZ6" s="123"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="117" t="str">
+      <c r="CC6" s="122" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="117"/>
+      <c r="CD6" s="122"/>
       <c r="CE6" s="7"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="118" t="str">
+      <c r="CI6" s="123" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="118"/>
+      <c r="CJ6" s="123"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="117" t="str">
+      <c r="CM6" s="122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="117"/>
+      <c r="CN6" s="122"/>
       <c r="CO6" s="7"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="118" t="str">
+      <c r="CS6" s="123" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="118"/>
+      <c r="CT6" s="123"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="117" t="str">
+      <c r="CW6" s="122" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="117"/>
+      <c r="CX6" s="122"/>
       <c r="CY6" s="7"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="118" t="str">
+      <c r="DC6" s="123" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="118"/>
+      <c r="DD6" s="123"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="117" t="str">
+      <c r="DG6" s="122" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="117"/>
+      <c r="DH6" s="122"/>
       <c r="DI6" s="7"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,10 +3062,10 @@
       <c r="I9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="88"/>
       <c r="O9" s="88"/>
       <c r="P9" s="98" t="str">
@@ -3092,13 +3080,13 @@
       <c r="S9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="99" t="str">
+      <c r="T9" s="104" t="str">
         <f>IF(J9="","",J9)</f>
         <v/>
       </c>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
       <c r="X9" s="88"/>
       <c r="Y9" s="88"/>
       <c r="Z9" s="98" t="str">
@@ -3113,13 +3101,13 @@
       <c r="AC9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="99" t="str">
+      <c r="AD9" s="104" t="str">
         <f>IF(T9="","",T9)</f>
         <v/>
       </c>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
       <c r="AH9" s="88"/>
       <c r="AI9" s="88"/>
       <c r="AJ9" s="98" t="str">
@@ -3134,13 +3122,13 @@
       <c r="AM9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AN9" s="99" t="str">
+      <c r="AN9" s="104" t="str">
         <f>IF(AD9="","",AD9)</f>
         <v/>
       </c>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
       <c r="AR9" s="88"/>
       <c r="AS9" s="88"/>
       <c r="AT9" s="98" t="str">
@@ -3155,13 +3143,13 @@
       <c r="AW9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AX9" s="99" t="str">
+      <c r="AX9" s="104" t="str">
         <f>IF(AN9="","",AN9)</f>
         <v/>
       </c>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="104"/>
+      <c r="BA9" s="104"/>
       <c r="BB9" s="88"/>
       <c r="BC9" s="88"/>
       <c r="BD9" s="98" t="str">
@@ -3176,13 +3164,13 @@
       <c r="BG9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BH9" s="99" t="str">
+      <c r="BH9" s="104" t="str">
         <f>IF(AX9="","",AX9)</f>
         <v/>
       </c>
-      <c r="BI9" s="99"/>
-      <c r="BJ9" s="99"/>
-      <c r="BK9" s="99"/>
+      <c r="BI9" s="104"/>
+      <c r="BJ9" s="104"/>
+      <c r="BK9" s="104"/>
       <c r="BL9" s="88"/>
       <c r="BM9" s="88"/>
       <c r="BN9" s="98" t="str">
@@ -3197,13 +3185,13 @@
       <c r="BQ9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BR9" s="99" t="str">
+      <c r="BR9" s="104" t="str">
         <f>IF(BH9="","",BH9)</f>
         <v/>
       </c>
-      <c r="BS9" s="99"/>
-      <c r="BT9" s="99"/>
-      <c r="BU9" s="99"/>
+      <c r="BS9" s="104"/>
+      <c r="BT9" s="104"/>
+      <c r="BU9" s="104"/>
       <c r="BV9" s="88"/>
       <c r="BW9" s="88"/>
       <c r="BX9" s="98" t="str">
@@ -3218,13 +3206,13 @@
       <c r="CA9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CB9" s="99" t="str">
+      <c r="CB9" s="104" t="str">
         <f>IF(BR9="","",BR9)</f>
         <v/>
       </c>
-      <c r="CC9" s="99"/>
-      <c r="CD9" s="99"/>
-      <c r="CE9" s="99"/>
+      <c r="CC9" s="104"/>
+      <c r="CD9" s="104"/>
+      <c r="CE9" s="104"/>
       <c r="CF9" s="88"/>
       <c r="CG9" s="88"/>
       <c r="CH9" s="98" t="str">
@@ -3239,13 +3227,13 @@
       <c r="CK9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CL9" s="99" t="str">
+      <c r="CL9" s="104" t="str">
         <f>IF(CB9="","",CB9)</f>
         <v/>
       </c>
-      <c r="CM9" s="99"/>
-      <c r="CN9" s="99"/>
-      <c r="CO9" s="99"/>
+      <c r="CM9" s="104"/>
+      <c r="CN9" s="104"/>
+      <c r="CO9" s="104"/>
       <c r="CP9" s="88"/>
       <c r="CQ9" s="88"/>
       <c r="CR9" s="98" t="str">
@@ -3260,13 +3248,13 @@
       <c r="CU9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CV9" s="99" t="str">
+      <c r="CV9" s="104" t="str">
         <f>IF(CL9="","",CL9)</f>
         <v/>
       </c>
-      <c r="CW9" s="99"/>
-      <c r="CX9" s="99"/>
-      <c r="CY9" s="99"/>
+      <c r="CW9" s="104"/>
+      <c r="CX9" s="104"/>
+      <c r="CY9" s="104"/>
       <c r="CZ9" s="88"/>
       <c r="DA9" s="88"/>
       <c r="DB9" s="98" t="str">
@@ -3281,13 +3269,13 @@
       <c r="DE9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="DF9" s="99" t="str">
+      <c r="DF9" s="104" t="str">
         <f>IF(CV9="","",CV9)</f>
         <v/>
       </c>
-      <c r="DG9" s="99"/>
-      <c r="DH9" s="99"/>
-      <c r="DI9" s="99"/>
+      <c r="DG9" s="104"/>
+      <c r="DH9" s="104"/>
+      <c r="DI9" s="104"/>
     </row>
     <row r="10" spans="1:113" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89"/>
@@ -5641,122 +5629,122 @@
       <c r="DH29" s="84"/>
       <c r="DI29" s="84"/>
     </row>
-    <row r="30" spans="1:113" s="123" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+    <row r="30" spans="1:113" s="103" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="122"/>
-      <c r="AL30" s="122"/>
-      <c r="AM30" s="122"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="122"/>
-      <c r="AP30" s="122"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="122"/>
-      <c r="AS30" s="122"/>
-      <c r="AT30" s="122"/>
-      <c r="AU30" s="122"/>
-      <c r="AV30" s="122"/>
-      <c r="AW30" s="122"/>
-      <c r="AX30" s="122"/>
-      <c r="AY30" s="122"/>
-      <c r="AZ30" s="122"/>
-      <c r="BA30" s="122"/>
-      <c r="BB30" s="122"/>
-      <c r="BC30" s="122"/>
-      <c r="BD30" s="122"/>
-      <c r="BE30" s="122"/>
-      <c r="BF30" s="122"/>
-      <c r="BG30" s="122"/>
-      <c r="BH30" s="122"/>
-      <c r="BI30" s="122"/>
-      <c r="BJ30" s="122"/>
-      <c r="BK30" s="122"/>
-      <c r="BL30" s="122"/>
-      <c r="BM30" s="122"/>
-      <c r="BN30" s="122"/>
-      <c r="BO30" s="122"/>
-      <c r="BP30" s="122"/>
-      <c r="BQ30" s="122"/>
-      <c r="BR30" s="122"/>
-      <c r="BS30" s="122"/>
-      <c r="BT30" s="122"/>
-      <c r="BU30" s="122"/>
-      <c r="BV30" s="122"/>
-      <c r="BW30" s="122"/>
-      <c r="BX30" s="122"/>
-      <c r="BY30" s="122"/>
-      <c r="BZ30" s="122"/>
-      <c r="CA30" s="122"/>
-      <c r="CB30" s="122"/>
-      <c r="CC30" s="122"/>
-      <c r="CD30" s="122"/>
-      <c r="CE30" s="122"/>
-      <c r="CF30" s="122"/>
-      <c r="CG30" s="122"/>
-      <c r="CH30" s="122"/>
-      <c r="CI30" s="122"/>
-      <c r="CJ30" s="122"/>
-      <c r="CK30" s="122"/>
-      <c r="CL30" s="122"/>
-      <c r="CM30" s="122"/>
-      <c r="CN30" s="122"/>
-      <c r="CO30" s="122"/>
-      <c r="CP30" s="122"/>
-      <c r="CQ30" s="122"/>
-      <c r="CR30" s="122"/>
-      <c r="CS30" s="122"/>
-      <c r="CT30" s="122"/>
-      <c r="CU30" s="122"/>
-      <c r="CV30" s="122"/>
-      <c r="CW30" s="122"/>
-      <c r="CX30" s="122"/>
-      <c r="CY30" s="122"/>
-      <c r="CZ30" s="122"/>
-      <c r="DA30" s="122"/>
-      <c r="DB30" s="122"/>
-      <c r="DC30" s="122"/>
-      <c r="DD30" s="122"/>
-      <c r="DE30" s="122"/>
-      <c r="DF30" s="122"/>
-      <c r="DG30" s="122"/>
-      <c r="DH30" s="122"/>
-      <c r="DI30" s="122"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="102"/>
+      <c r="AG30" s="102"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="102"/>
+      <c r="AN30" s="102"/>
+      <c r="AO30" s="102"/>
+      <c r="AP30" s="102"/>
+      <c r="AQ30" s="102"/>
+      <c r="AR30" s="102"/>
+      <c r="AS30" s="102"/>
+      <c r="AT30" s="102"/>
+      <c r="AU30" s="102"/>
+      <c r="AV30" s="102"/>
+      <c r="AW30" s="102"/>
+      <c r="AX30" s="102"/>
+      <c r="AY30" s="102"/>
+      <c r="AZ30" s="102"/>
+      <c r="BA30" s="102"/>
+      <c r="BB30" s="102"/>
+      <c r="BC30" s="102"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
+      <c r="BG30" s="102"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="102"/>
+      <c r="BK30" s="102"/>
+      <c r="BL30" s="102"/>
+      <c r="BM30" s="102"/>
+      <c r="BN30" s="102"/>
+      <c r="BO30" s="102"/>
+      <c r="BP30" s="102"/>
+      <c r="BQ30" s="102"/>
+      <c r="BR30" s="102"/>
+      <c r="BS30" s="102"/>
+      <c r="BT30" s="102"/>
+      <c r="BU30" s="102"/>
+      <c r="BV30" s="102"/>
+      <c r="BW30" s="102"/>
+      <c r="BX30" s="102"/>
+      <c r="BY30" s="102"/>
+      <c r="BZ30" s="102"/>
+      <c r="CA30" s="102"/>
+      <c r="CB30" s="102"/>
+      <c r="CC30" s="102"/>
+      <c r="CD30" s="102"/>
+      <c r="CE30" s="102"/>
+      <c r="CF30" s="102"/>
+      <c r="CG30" s="102"/>
+      <c r="CH30" s="102"/>
+      <c r="CI30" s="102"/>
+      <c r="CJ30" s="102"/>
+      <c r="CK30" s="102"/>
+      <c r="CL30" s="102"/>
+      <c r="CM30" s="102"/>
+      <c r="CN30" s="102"/>
+      <c r="CO30" s="102"/>
+      <c r="CP30" s="102"/>
+      <c r="CQ30" s="102"/>
+      <c r="CR30" s="102"/>
+      <c r="CS30" s="102"/>
+      <c r="CT30" s="102"/>
+      <c r="CU30" s="102"/>
+      <c r="CV30" s="102"/>
+      <c r="CW30" s="102"/>
+      <c r="CX30" s="102"/>
+      <c r="CY30" s="102"/>
+      <c r="CZ30" s="102"/>
+      <c r="DA30" s="102"/>
+      <c r="DB30" s="102"/>
+      <c r="DC30" s="102"/>
+      <c r="DD30" s="102"/>
+      <c r="DE30" s="102"/>
+      <c r="DF30" s="102"/>
+      <c r="DG30" s="102"/>
+      <c r="DH30" s="102"/>
+      <c r="DI30" s="102"/>
     </row>
     <row r="31" spans="1:113" s="71" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
@@ -6586,11 +6574,11 @@
       <c r="DI37" s="87"/>
     </row>
     <row r="38" spans="1:113" s="20" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -7619,146 +7607,146 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100" t="str">
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105" t="str">
         <f>IF(ISBLANK(D47),"",D47)</f>
         <v/>
       </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100" t="str">
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105" t="str">
         <f t="shared" ref="X47" si="35">IF(ISBLANK(N47),"",N47)</f>
         <v/>
       </c>
-      <c r="Y47" s="100"/>
-      <c r="Z47" s="100"/>
-      <c r="AA47" s="100"/>
-      <c r="AB47" s="100"/>
-      <c r="AC47" s="100"/>
-      <c r="AD47" s="100"/>
-      <c r="AE47" s="100"/>
-      <c r="AF47" s="100"/>
-      <c r="AG47" s="100"/>
-      <c r="AH47" s="100" t="str">
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="105" t="str">
         <f t="shared" ref="AH47" si="36">IF(ISBLANK(X47),"",X47)</f>
         <v/>
       </c>
-      <c r="AI47" s="100"/>
-      <c r="AJ47" s="100"/>
-      <c r="AK47" s="100"/>
-      <c r="AL47" s="100"/>
-      <c r="AM47" s="100"/>
-      <c r="AN47" s="100"/>
-      <c r="AO47" s="100"/>
-      <c r="AP47" s="100"/>
-      <c r="AQ47" s="100"/>
-      <c r="AR47" s="100" t="str">
+      <c r="AI47" s="105"/>
+      <c r="AJ47" s="105"/>
+      <c r="AK47" s="105"/>
+      <c r="AL47" s="105"/>
+      <c r="AM47" s="105"/>
+      <c r="AN47" s="105"/>
+      <c r="AO47" s="105"/>
+      <c r="AP47" s="105"/>
+      <c r="AQ47" s="105"/>
+      <c r="AR47" s="105" t="str">
         <f t="shared" ref="AR47" si="37">IF(ISBLANK(AH47),"",AH47)</f>
         <v/>
       </c>
-      <c r="AS47" s="100"/>
-      <c r="AT47" s="100"/>
-      <c r="AU47" s="100"/>
-      <c r="AV47" s="100"/>
-      <c r="AW47" s="100"/>
-      <c r="AX47" s="100"/>
-      <c r="AY47" s="100"/>
-      <c r="AZ47" s="100"/>
-      <c r="BA47" s="100"/>
-      <c r="BB47" s="100" t="str">
+      <c r="AS47" s="105"/>
+      <c r="AT47" s="105"/>
+      <c r="AU47" s="105"/>
+      <c r="AV47" s="105"/>
+      <c r="AW47" s="105"/>
+      <c r="AX47" s="105"/>
+      <c r="AY47" s="105"/>
+      <c r="AZ47" s="105"/>
+      <c r="BA47" s="105"/>
+      <c r="BB47" s="105" t="str">
         <f t="shared" ref="BB47" si="38">IF(ISBLANK(AR47),"",AR47)</f>
         <v/>
       </c>
-      <c r="BC47" s="100"/>
-      <c r="BD47" s="100"/>
-      <c r="BE47" s="100"/>
-      <c r="BF47" s="100"/>
-      <c r="BG47" s="100"/>
-      <c r="BH47" s="100"/>
-      <c r="BI47" s="100"/>
-      <c r="BJ47" s="100"/>
-      <c r="BK47" s="100"/>
-      <c r="BL47" s="100" t="str">
+      <c r="BC47" s="105"/>
+      <c r="BD47" s="105"/>
+      <c r="BE47" s="105"/>
+      <c r="BF47" s="105"/>
+      <c r="BG47" s="105"/>
+      <c r="BH47" s="105"/>
+      <c r="BI47" s="105"/>
+      <c r="BJ47" s="105"/>
+      <c r="BK47" s="105"/>
+      <c r="BL47" s="105" t="str">
         <f t="shared" ref="BL47" si="39">IF(ISBLANK(BB47),"",BB47)</f>
         <v/>
       </c>
-      <c r="BM47" s="100"/>
-      <c r="BN47" s="100"/>
-      <c r="BO47" s="100"/>
-      <c r="BP47" s="100"/>
-      <c r="BQ47" s="100"/>
-      <c r="BR47" s="100"/>
-      <c r="BS47" s="100"/>
-      <c r="BT47" s="100"/>
-      <c r="BU47" s="100"/>
-      <c r="BV47" s="100" t="str">
+      <c r="BM47" s="105"/>
+      <c r="BN47" s="105"/>
+      <c r="BO47" s="105"/>
+      <c r="BP47" s="105"/>
+      <c r="BQ47" s="105"/>
+      <c r="BR47" s="105"/>
+      <c r="BS47" s="105"/>
+      <c r="BT47" s="105"/>
+      <c r="BU47" s="105"/>
+      <c r="BV47" s="105" t="str">
         <f t="shared" ref="BV47" si="40">IF(ISBLANK(BL47),"",BL47)</f>
         <v/>
       </c>
-      <c r="BW47" s="100"/>
-      <c r="BX47" s="100"/>
-      <c r="BY47" s="100"/>
-      <c r="BZ47" s="100"/>
-      <c r="CA47" s="100"/>
-      <c r="CB47" s="100"/>
-      <c r="CC47" s="100"/>
-      <c r="CD47" s="100"/>
-      <c r="CE47" s="100"/>
-      <c r="CF47" s="100" t="str">
+      <c r="BW47" s="105"/>
+      <c r="BX47" s="105"/>
+      <c r="BY47" s="105"/>
+      <c r="BZ47" s="105"/>
+      <c r="CA47" s="105"/>
+      <c r="CB47" s="105"/>
+      <c r="CC47" s="105"/>
+      <c r="CD47" s="105"/>
+      <c r="CE47" s="105"/>
+      <c r="CF47" s="105" t="str">
         <f t="shared" ref="CF47" si="41">IF(ISBLANK(BV47),"",BV47)</f>
         <v/>
       </c>
-      <c r="CG47" s="100"/>
-      <c r="CH47" s="100"/>
-      <c r="CI47" s="100"/>
-      <c r="CJ47" s="100"/>
-      <c r="CK47" s="100"/>
-      <c r="CL47" s="100"/>
-      <c r="CM47" s="100"/>
-      <c r="CN47" s="100"/>
-      <c r="CO47" s="100"/>
-      <c r="CP47" s="100" t="str">
+      <c r="CG47" s="105"/>
+      <c r="CH47" s="105"/>
+      <c r="CI47" s="105"/>
+      <c r="CJ47" s="105"/>
+      <c r="CK47" s="105"/>
+      <c r="CL47" s="105"/>
+      <c r="CM47" s="105"/>
+      <c r="CN47" s="105"/>
+      <c r="CO47" s="105"/>
+      <c r="CP47" s="105" t="str">
         <f t="shared" ref="CP47" si="42">IF(ISBLANK(CF47),"",CF47)</f>
         <v/>
       </c>
-      <c r="CQ47" s="100"/>
-      <c r="CR47" s="100"/>
-      <c r="CS47" s="100"/>
-      <c r="CT47" s="100"/>
-      <c r="CU47" s="100"/>
-      <c r="CV47" s="100"/>
-      <c r="CW47" s="100"/>
-      <c r="CX47" s="100"/>
-      <c r="CY47" s="100"/>
-      <c r="CZ47" s="100" t="str">
+      <c r="CQ47" s="105"/>
+      <c r="CR47" s="105"/>
+      <c r="CS47" s="105"/>
+      <c r="CT47" s="105"/>
+      <c r="CU47" s="105"/>
+      <c r="CV47" s="105"/>
+      <c r="CW47" s="105"/>
+      <c r="CX47" s="105"/>
+      <c r="CY47" s="105"/>
+      <c r="CZ47" s="105" t="str">
         <f>IF(ISBLANK(CP47),"",CP47)</f>
         <v/>
       </c>
-      <c r="DA47" s="100"/>
-      <c r="DB47" s="100"/>
-      <c r="DC47" s="100"/>
-      <c r="DD47" s="100"/>
-      <c r="DE47" s="100"/>
-      <c r="DF47" s="100"/>
-      <c r="DG47" s="100"/>
-      <c r="DH47" s="100"/>
-      <c r="DI47" s="100"/>
+      <c r="DA47" s="105"/>
+      <c r="DB47" s="105"/>
+      <c r="DC47" s="105"/>
+      <c r="DD47" s="105"/>
+      <c r="DE47" s="105"/>
+      <c r="DF47" s="105"/>
+      <c r="DG47" s="105"/>
+      <c r="DH47" s="105"/>
+      <c r="DI47" s="105"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -7766,461 +7754,461 @@
         <v>36</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100"/>
-      <c r="Y48" s="100"/>
-      <c r="Z48" s="100"/>
-      <c r="AA48" s="100"/>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="100"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="100"/>
-      <c r="AF48" s="100"/>
-      <c r="AG48" s="100"/>
-      <c r="AH48" s="100"/>
-      <c r="AI48" s="100"/>
-      <c r="AJ48" s="100"/>
-      <c r="AK48" s="100"/>
-      <c r="AL48" s="100"/>
-      <c r="AM48" s="100"/>
-      <c r="AN48" s="100"/>
-      <c r="AO48" s="100"/>
-      <c r="AP48" s="100"/>
-      <c r="AQ48" s="100"/>
-      <c r="AR48" s="100"/>
-      <c r="AS48" s="100"/>
-      <c r="AT48" s="100"/>
-      <c r="AU48" s="100"/>
-      <c r="AV48" s="100"/>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="100"/>
-      <c r="AY48" s="100"/>
-      <c r="AZ48" s="100"/>
-      <c r="BA48" s="100"/>
-      <c r="BB48" s="100"/>
-      <c r="BC48" s="100"/>
-      <c r="BD48" s="100"/>
-      <c r="BE48" s="100"/>
-      <c r="BF48" s="100"/>
-      <c r="BG48" s="100"/>
-      <c r="BH48" s="100"/>
-      <c r="BI48" s="100"/>
-      <c r="BJ48" s="100"/>
-      <c r="BK48" s="100"/>
-      <c r="BL48" s="100"/>
-      <c r="BM48" s="100"/>
-      <c r="BN48" s="100"/>
-      <c r="BO48" s="100"/>
-      <c r="BP48" s="100"/>
-      <c r="BQ48" s="100"/>
-      <c r="BR48" s="100"/>
-      <c r="BS48" s="100"/>
-      <c r="BT48" s="100"/>
-      <c r="BU48" s="100"/>
-      <c r="BV48" s="100"/>
-      <c r="BW48" s="100"/>
-      <c r="BX48" s="100"/>
-      <c r="BY48" s="100"/>
-      <c r="BZ48" s="100"/>
-      <c r="CA48" s="100"/>
-      <c r="CB48" s="100"/>
-      <c r="CC48" s="100"/>
-      <c r="CD48" s="100"/>
-      <c r="CE48" s="100"/>
-      <c r="CF48" s="100"/>
-      <c r="CG48" s="100"/>
-      <c r="CH48" s="100"/>
-      <c r="CI48" s="100"/>
-      <c r="CJ48" s="100"/>
-      <c r="CK48" s="100"/>
-      <c r="CL48" s="100"/>
-      <c r="CM48" s="100"/>
-      <c r="CN48" s="100"/>
-      <c r="CO48" s="100"/>
-      <c r="CP48" s="100"/>
-      <c r="CQ48" s="100"/>
-      <c r="CR48" s="100"/>
-      <c r="CS48" s="100"/>
-      <c r="CT48" s="100"/>
-      <c r="CU48" s="100"/>
-      <c r="CV48" s="100"/>
-      <c r="CW48" s="100"/>
-      <c r="CX48" s="100"/>
-      <c r="CY48" s="100"/>
-      <c r="CZ48" s="100"/>
-      <c r="DA48" s="100"/>
-      <c r="DB48" s="100"/>
-      <c r="DC48" s="100"/>
-      <c r="DD48" s="100"/>
-      <c r="DE48" s="100"/>
-      <c r="DF48" s="100"/>
-      <c r="DG48" s="100"/>
-      <c r="DH48" s="100"/>
-      <c r="DI48" s="100"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="105"/>
+      <c r="AB48" s="105"/>
+      <c r="AC48" s="105"/>
+      <c r="AD48" s="105"/>
+      <c r="AE48" s="105"/>
+      <c r="AF48" s="105"/>
+      <c r="AG48" s="105"/>
+      <c r="AH48" s="105"/>
+      <c r="AI48" s="105"/>
+      <c r="AJ48" s="105"/>
+      <c r="AK48" s="105"/>
+      <c r="AL48" s="105"/>
+      <c r="AM48" s="105"/>
+      <c r="AN48" s="105"/>
+      <c r="AO48" s="105"/>
+      <c r="AP48" s="105"/>
+      <c r="AQ48" s="105"/>
+      <c r="AR48" s="105"/>
+      <c r="AS48" s="105"/>
+      <c r="AT48" s="105"/>
+      <c r="AU48" s="105"/>
+      <c r="AV48" s="105"/>
+      <c r="AW48" s="105"/>
+      <c r="AX48" s="105"/>
+      <c r="AY48" s="105"/>
+      <c r="AZ48" s="105"/>
+      <c r="BA48" s="105"/>
+      <c r="BB48" s="105"/>
+      <c r="BC48" s="105"/>
+      <c r="BD48" s="105"/>
+      <c r="BE48" s="105"/>
+      <c r="BF48" s="105"/>
+      <c r="BG48" s="105"/>
+      <c r="BH48" s="105"/>
+      <c r="BI48" s="105"/>
+      <c r="BJ48" s="105"/>
+      <c r="BK48" s="105"/>
+      <c r="BL48" s="105"/>
+      <c r="BM48" s="105"/>
+      <c r="BN48" s="105"/>
+      <c r="BO48" s="105"/>
+      <c r="BP48" s="105"/>
+      <c r="BQ48" s="105"/>
+      <c r="BR48" s="105"/>
+      <c r="BS48" s="105"/>
+      <c r="BT48" s="105"/>
+      <c r="BU48" s="105"/>
+      <c r="BV48" s="105"/>
+      <c r="BW48" s="105"/>
+      <c r="BX48" s="105"/>
+      <c r="BY48" s="105"/>
+      <c r="BZ48" s="105"/>
+      <c r="CA48" s="105"/>
+      <c r="CB48" s="105"/>
+      <c r="CC48" s="105"/>
+      <c r="CD48" s="105"/>
+      <c r="CE48" s="105"/>
+      <c r="CF48" s="105"/>
+      <c r="CG48" s="105"/>
+      <c r="CH48" s="105"/>
+      <c r="CI48" s="105"/>
+      <c r="CJ48" s="105"/>
+      <c r="CK48" s="105"/>
+      <c r="CL48" s="105"/>
+      <c r="CM48" s="105"/>
+      <c r="CN48" s="105"/>
+      <c r="CO48" s="105"/>
+      <c r="CP48" s="105"/>
+      <c r="CQ48" s="105"/>
+      <c r="CR48" s="105"/>
+      <c r="CS48" s="105"/>
+      <c r="CT48" s="105"/>
+      <c r="CU48" s="105"/>
+      <c r="CV48" s="105"/>
+      <c r="CW48" s="105"/>
+      <c r="CX48" s="105"/>
+      <c r="CY48" s="105"/>
+      <c r="CZ48" s="105"/>
+      <c r="DA48" s="105"/>
+      <c r="DB48" s="105"/>
+      <c r="DC48" s="105"/>
+      <c r="DD48" s="105"/>
+      <c r="DE48" s="105"/>
+      <c r="DF48" s="105"/>
+      <c r="DG48" s="105"/>
+      <c r="DH48" s="105"/>
+      <c r="DI48" s="105"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
-      <c r="U49" s="100"/>
-      <c r="V49" s="100"/>
-      <c r="W49" s="100"/>
-      <c r="X49" s="100"/>
-      <c r="Y49" s="100"/>
-      <c r="Z49" s="100"/>
-      <c r="AA49" s="100"/>
-      <c r="AB49" s="100"/>
-      <c r="AC49" s="100"/>
-      <c r="AD49" s="100"/>
-      <c r="AE49" s="100"/>
-      <c r="AF49" s="100"/>
-      <c r="AG49" s="100"/>
-      <c r="AH49" s="100"/>
-      <c r="AI49" s="100"/>
-      <c r="AJ49" s="100"/>
-      <c r="AK49" s="100"/>
-      <c r="AL49" s="100"/>
-      <c r="AM49" s="100"/>
-      <c r="AN49" s="100"/>
-      <c r="AO49" s="100"/>
-      <c r="AP49" s="100"/>
-      <c r="AQ49" s="100"/>
-      <c r="AR49" s="100"/>
-      <c r="AS49" s="100"/>
-      <c r="AT49" s="100"/>
-      <c r="AU49" s="100"/>
-      <c r="AV49" s="100"/>
-      <c r="AW49" s="100"/>
-      <c r="AX49" s="100"/>
-      <c r="AY49" s="100"/>
-      <c r="AZ49" s="100"/>
-      <c r="BA49" s="100"/>
-      <c r="BB49" s="100"/>
-      <c r="BC49" s="100"/>
-      <c r="BD49" s="100"/>
-      <c r="BE49" s="100"/>
-      <c r="BF49" s="100"/>
-      <c r="BG49" s="100"/>
-      <c r="BH49" s="100"/>
-      <c r="BI49" s="100"/>
-      <c r="BJ49" s="100"/>
-      <c r="BK49" s="100"/>
-      <c r="BL49" s="100"/>
-      <c r="BM49" s="100"/>
-      <c r="BN49" s="100"/>
-      <c r="BO49" s="100"/>
-      <c r="BP49" s="100"/>
-      <c r="BQ49" s="100"/>
-      <c r="BR49" s="100"/>
-      <c r="BS49" s="100"/>
-      <c r="BT49" s="100"/>
-      <c r="BU49" s="100"/>
-      <c r="BV49" s="100"/>
-      <c r="BW49" s="100"/>
-      <c r="BX49" s="100"/>
-      <c r="BY49" s="100"/>
-      <c r="BZ49" s="100"/>
-      <c r="CA49" s="100"/>
-      <c r="CB49" s="100"/>
-      <c r="CC49" s="100"/>
-      <c r="CD49" s="100"/>
-      <c r="CE49" s="100"/>
-      <c r="CF49" s="100"/>
-      <c r="CG49" s="100"/>
-      <c r="CH49" s="100"/>
-      <c r="CI49" s="100"/>
-      <c r="CJ49" s="100"/>
-      <c r="CK49" s="100"/>
-      <c r="CL49" s="100"/>
-      <c r="CM49" s="100"/>
-      <c r="CN49" s="100"/>
-      <c r="CO49" s="100"/>
-      <c r="CP49" s="100"/>
-      <c r="CQ49" s="100"/>
-      <c r="CR49" s="100"/>
-      <c r="CS49" s="100"/>
-      <c r="CT49" s="100"/>
-      <c r="CU49" s="100"/>
-      <c r="CV49" s="100"/>
-      <c r="CW49" s="100"/>
-      <c r="CX49" s="100"/>
-      <c r="CY49" s="100"/>
-      <c r="CZ49" s="100"/>
-      <c r="DA49" s="100"/>
-      <c r="DB49" s="100"/>
-      <c r="DC49" s="100"/>
-      <c r="DD49" s="100"/>
-      <c r="DE49" s="100"/>
-      <c r="DF49" s="100"/>
-      <c r="DG49" s="100"/>
-      <c r="DH49" s="100"/>
-      <c r="DI49" s="100"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="105"/>
+      <c r="X49" s="105"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="105"/>
+      <c r="AA49" s="105"/>
+      <c r="AB49" s="105"/>
+      <c r="AC49" s="105"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="105"/>
+      <c r="AF49" s="105"/>
+      <c r="AG49" s="105"/>
+      <c r="AH49" s="105"/>
+      <c r="AI49" s="105"/>
+      <c r="AJ49" s="105"/>
+      <c r="AK49" s="105"/>
+      <c r="AL49" s="105"/>
+      <c r="AM49" s="105"/>
+      <c r="AN49" s="105"/>
+      <c r="AO49" s="105"/>
+      <c r="AP49" s="105"/>
+      <c r="AQ49" s="105"/>
+      <c r="AR49" s="105"/>
+      <c r="AS49" s="105"/>
+      <c r="AT49" s="105"/>
+      <c r="AU49" s="105"/>
+      <c r="AV49" s="105"/>
+      <c r="AW49" s="105"/>
+      <c r="AX49" s="105"/>
+      <c r="AY49" s="105"/>
+      <c r="AZ49" s="105"/>
+      <c r="BA49" s="105"/>
+      <c r="BB49" s="105"/>
+      <c r="BC49" s="105"/>
+      <c r="BD49" s="105"/>
+      <c r="BE49" s="105"/>
+      <c r="BF49" s="105"/>
+      <c r="BG49" s="105"/>
+      <c r="BH49" s="105"/>
+      <c r="BI49" s="105"/>
+      <c r="BJ49" s="105"/>
+      <c r="BK49" s="105"/>
+      <c r="BL49" s="105"/>
+      <c r="BM49" s="105"/>
+      <c r="BN49" s="105"/>
+      <c r="BO49" s="105"/>
+      <c r="BP49" s="105"/>
+      <c r="BQ49" s="105"/>
+      <c r="BR49" s="105"/>
+      <c r="BS49" s="105"/>
+      <c r="BT49" s="105"/>
+      <c r="BU49" s="105"/>
+      <c r="BV49" s="105"/>
+      <c r="BW49" s="105"/>
+      <c r="BX49" s="105"/>
+      <c r="BY49" s="105"/>
+      <c r="BZ49" s="105"/>
+      <c r="CA49" s="105"/>
+      <c r="CB49" s="105"/>
+      <c r="CC49" s="105"/>
+      <c r="CD49" s="105"/>
+      <c r="CE49" s="105"/>
+      <c r="CF49" s="105"/>
+      <c r="CG49" s="105"/>
+      <c r="CH49" s="105"/>
+      <c r="CI49" s="105"/>
+      <c r="CJ49" s="105"/>
+      <c r="CK49" s="105"/>
+      <c r="CL49" s="105"/>
+      <c r="CM49" s="105"/>
+      <c r="CN49" s="105"/>
+      <c r="CO49" s="105"/>
+      <c r="CP49" s="105"/>
+      <c r="CQ49" s="105"/>
+      <c r="CR49" s="105"/>
+      <c r="CS49" s="105"/>
+      <c r="CT49" s="105"/>
+      <c r="CU49" s="105"/>
+      <c r="CV49" s="105"/>
+      <c r="CW49" s="105"/>
+      <c r="CX49" s="105"/>
+      <c r="CY49" s="105"/>
+      <c r="CZ49" s="105"/>
+      <c r="DA49" s="105"/>
+      <c r="DB49" s="105"/>
+      <c r="DC49" s="105"/>
+      <c r="DD49" s="105"/>
+      <c r="DE49" s="105"/>
+      <c r="DF49" s="105"/>
+      <c r="DG49" s="105"/>
+      <c r="DH49" s="105"/>
+      <c r="DI49" s="105"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="100"/>
-      <c r="AF50" s="100"/>
-      <c r="AG50" s="100"/>
-      <c r="AH50" s="100"/>
-      <c r="AI50" s="100"/>
-      <c r="AJ50" s="100"/>
-      <c r="AK50" s="100"/>
-      <c r="AL50" s="100"/>
-      <c r="AM50" s="100"/>
-      <c r="AN50" s="100"/>
-      <c r="AO50" s="100"/>
-      <c r="AP50" s="100"/>
-      <c r="AQ50" s="100"/>
-      <c r="AR50" s="100"/>
-      <c r="AS50" s="100"/>
-      <c r="AT50" s="100"/>
-      <c r="AU50" s="100"/>
-      <c r="AV50" s="100"/>
-      <c r="AW50" s="100"/>
-      <c r="AX50" s="100"/>
-      <c r="AY50" s="100"/>
-      <c r="AZ50" s="100"/>
-      <c r="BA50" s="100"/>
-      <c r="BB50" s="100"/>
-      <c r="BC50" s="100"/>
-      <c r="BD50" s="100"/>
-      <c r="BE50" s="100"/>
-      <c r="BF50" s="100"/>
-      <c r="BG50" s="100"/>
-      <c r="BH50" s="100"/>
-      <c r="BI50" s="100"/>
-      <c r="BJ50" s="100"/>
-      <c r="BK50" s="100"/>
-      <c r="BL50" s="100"/>
-      <c r="BM50" s="100"/>
-      <c r="BN50" s="100"/>
-      <c r="BO50" s="100"/>
-      <c r="BP50" s="100"/>
-      <c r="BQ50" s="100"/>
-      <c r="BR50" s="100"/>
-      <c r="BS50" s="100"/>
-      <c r="BT50" s="100"/>
-      <c r="BU50" s="100"/>
-      <c r="BV50" s="100"/>
-      <c r="BW50" s="100"/>
-      <c r="BX50" s="100"/>
-      <c r="BY50" s="100"/>
-      <c r="BZ50" s="100"/>
-      <c r="CA50" s="100"/>
-      <c r="CB50" s="100"/>
-      <c r="CC50" s="100"/>
-      <c r="CD50" s="100"/>
-      <c r="CE50" s="100"/>
-      <c r="CF50" s="100"/>
-      <c r="CG50" s="100"/>
-      <c r="CH50" s="100"/>
-      <c r="CI50" s="100"/>
-      <c r="CJ50" s="100"/>
-      <c r="CK50" s="100"/>
-      <c r="CL50" s="100"/>
-      <c r="CM50" s="100"/>
-      <c r="CN50" s="100"/>
-      <c r="CO50" s="100"/>
-      <c r="CP50" s="100"/>
-      <c r="CQ50" s="100"/>
-      <c r="CR50" s="100"/>
-      <c r="CS50" s="100"/>
-      <c r="CT50" s="100"/>
-      <c r="CU50" s="100"/>
-      <c r="CV50" s="100"/>
-      <c r="CW50" s="100"/>
-      <c r="CX50" s="100"/>
-      <c r="CY50" s="100"/>
-      <c r="CZ50" s="100"/>
-      <c r="DA50" s="100"/>
-      <c r="DB50" s="100"/>
-      <c r="DC50" s="100"/>
-      <c r="DD50" s="100"/>
-      <c r="DE50" s="100"/>
-      <c r="DF50" s="100"/>
-      <c r="DG50" s="100"/>
-      <c r="DH50" s="100"/>
-      <c r="DI50" s="100"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="105"/>
+      <c r="AG50" s="105"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="105"/>
+      <c r="AJ50" s="105"/>
+      <c r="AK50" s="105"/>
+      <c r="AL50" s="105"/>
+      <c r="AM50" s="105"/>
+      <c r="AN50" s="105"/>
+      <c r="AO50" s="105"/>
+      <c r="AP50" s="105"/>
+      <c r="AQ50" s="105"/>
+      <c r="AR50" s="105"/>
+      <c r="AS50" s="105"/>
+      <c r="AT50" s="105"/>
+      <c r="AU50" s="105"/>
+      <c r="AV50" s="105"/>
+      <c r="AW50" s="105"/>
+      <c r="AX50" s="105"/>
+      <c r="AY50" s="105"/>
+      <c r="AZ50" s="105"/>
+      <c r="BA50" s="105"/>
+      <c r="BB50" s="105"/>
+      <c r="BC50" s="105"/>
+      <c r="BD50" s="105"/>
+      <c r="BE50" s="105"/>
+      <c r="BF50" s="105"/>
+      <c r="BG50" s="105"/>
+      <c r="BH50" s="105"/>
+      <c r="BI50" s="105"/>
+      <c r="BJ50" s="105"/>
+      <c r="BK50" s="105"/>
+      <c r="BL50" s="105"/>
+      <c r="BM50" s="105"/>
+      <c r="BN50" s="105"/>
+      <c r="BO50" s="105"/>
+      <c r="BP50" s="105"/>
+      <c r="BQ50" s="105"/>
+      <c r="BR50" s="105"/>
+      <c r="BS50" s="105"/>
+      <c r="BT50" s="105"/>
+      <c r="BU50" s="105"/>
+      <c r="BV50" s="105"/>
+      <c r="BW50" s="105"/>
+      <c r="BX50" s="105"/>
+      <c r="BY50" s="105"/>
+      <c r="BZ50" s="105"/>
+      <c r="CA50" s="105"/>
+      <c r="CB50" s="105"/>
+      <c r="CC50" s="105"/>
+      <c r="CD50" s="105"/>
+      <c r="CE50" s="105"/>
+      <c r="CF50" s="105"/>
+      <c r="CG50" s="105"/>
+      <c r="CH50" s="105"/>
+      <c r="CI50" s="105"/>
+      <c r="CJ50" s="105"/>
+      <c r="CK50" s="105"/>
+      <c r="CL50" s="105"/>
+      <c r="CM50" s="105"/>
+      <c r="CN50" s="105"/>
+      <c r="CO50" s="105"/>
+      <c r="CP50" s="105"/>
+      <c r="CQ50" s="105"/>
+      <c r="CR50" s="105"/>
+      <c r="CS50" s="105"/>
+      <c r="CT50" s="105"/>
+      <c r="CU50" s="105"/>
+      <c r="CV50" s="105"/>
+      <c r="CW50" s="105"/>
+      <c r="CX50" s="105"/>
+      <c r="CY50" s="105"/>
+      <c r="CZ50" s="105"/>
+      <c r="DA50" s="105"/>
+      <c r="DB50" s="105"/>
+      <c r="DC50" s="105"/>
+      <c r="DD50" s="105"/>
+      <c r="DE50" s="105"/>
+      <c r="DF50" s="105"/>
+      <c r="DG50" s="105"/>
+      <c r="DH50" s="105"/>
+      <c r="DI50" s="105"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="100"/>
-      <c r="AF51" s="100"/>
-      <c r="AG51" s="100"/>
-      <c r="AH51" s="100"/>
-      <c r="AI51" s="100"/>
-      <c r="AJ51" s="100"/>
-      <c r="AK51" s="100"/>
-      <c r="AL51" s="100"/>
-      <c r="AM51" s="100"/>
-      <c r="AN51" s="100"/>
-      <c r="AO51" s="100"/>
-      <c r="AP51" s="100"/>
-      <c r="AQ51" s="100"/>
-      <c r="AR51" s="100"/>
-      <c r="AS51" s="100"/>
-      <c r="AT51" s="100"/>
-      <c r="AU51" s="100"/>
-      <c r="AV51" s="100"/>
-      <c r="AW51" s="100"/>
-      <c r="AX51" s="100"/>
-      <c r="AY51" s="100"/>
-      <c r="AZ51" s="100"/>
-      <c r="BA51" s="100"/>
-      <c r="BB51" s="100"/>
-      <c r="BC51" s="100"/>
-      <c r="BD51" s="100"/>
-      <c r="BE51" s="100"/>
-      <c r="BF51" s="100"/>
-      <c r="BG51" s="100"/>
-      <c r="BH51" s="100"/>
-      <c r="BI51" s="100"/>
-      <c r="BJ51" s="100"/>
-      <c r="BK51" s="100"/>
-      <c r="BL51" s="100"/>
-      <c r="BM51" s="100"/>
-      <c r="BN51" s="100"/>
-      <c r="BO51" s="100"/>
-      <c r="BP51" s="100"/>
-      <c r="BQ51" s="100"/>
-      <c r="BR51" s="100"/>
-      <c r="BS51" s="100"/>
-      <c r="BT51" s="100"/>
-      <c r="BU51" s="100"/>
-      <c r="BV51" s="100"/>
-      <c r="BW51" s="100"/>
-      <c r="BX51" s="100"/>
-      <c r="BY51" s="100"/>
-      <c r="BZ51" s="100"/>
-      <c r="CA51" s="100"/>
-      <c r="CB51" s="100"/>
-      <c r="CC51" s="100"/>
-      <c r="CD51" s="100"/>
-      <c r="CE51" s="100"/>
-      <c r="CF51" s="100"/>
-      <c r="CG51" s="100"/>
-      <c r="CH51" s="100"/>
-      <c r="CI51" s="100"/>
-      <c r="CJ51" s="100"/>
-      <c r="CK51" s="100"/>
-      <c r="CL51" s="100"/>
-      <c r="CM51" s="100"/>
-      <c r="CN51" s="100"/>
-      <c r="CO51" s="100"/>
-      <c r="CP51" s="100"/>
-      <c r="CQ51" s="100"/>
-      <c r="CR51" s="100"/>
-      <c r="CS51" s="100"/>
-      <c r="CT51" s="100"/>
-      <c r="CU51" s="100"/>
-      <c r="CV51" s="100"/>
-      <c r="CW51" s="100"/>
-      <c r="CX51" s="100"/>
-      <c r="CY51" s="100"/>
-      <c r="CZ51" s="100"/>
-      <c r="DA51" s="100"/>
-      <c r="DB51" s="100"/>
-      <c r="DC51" s="100"/>
-      <c r="DD51" s="100"/>
-      <c r="DE51" s="100"/>
-      <c r="DF51" s="100"/>
-      <c r="DG51" s="100"/>
-      <c r="DH51" s="100"/>
-      <c r="DI51" s="100"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="105"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="105"/>
+      <c r="AI51" s="105"/>
+      <c r="AJ51" s="105"/>
+      <c r="AK51" s="105"/>
+      <c r="AL51" s="105"/>
+      <c r="AM51" s="105"/>
+      <c r="AN51" s="105"/>
+      <c r="AO51" s="105"/>
+      <c r="AP51" s="105"/>
+      <c r="AQ51" s="105"/>
+      <c r="AR51" s="105"/>
+      <c r="AS51" s="105"/>
+      <c r="AT51" s="105"/>
+      <c r="AU51" s="105"/>
+      <c r="AV51" s="105"/>
+      <c r="AW51" s="105"/>
+      <c r="AX51" s="105"/>
+      <c r="AY51" s="105"/>
+      <c r="AZ51" s="105"/>
+      <c r="BA51" s="105"/>
+      <c r="BB51" s="105"/>
+      <c r="BC51" s="105"/>
+      <c r="BD51" s="105"/>
+      <c r="BE51" s="105"/>
+      <c r="BF51" s="105"/>
+      <c r="BG51" s="105"/>
+      <c r="BH51" s="105"/>
+      <c r="BI51" s="105"/>
+      <c r="BJ51" s="105"/>
+      <c r="BK51" s="105"/>
+      <c r="BL51" s="105"/>
+      <c r="BM51" s="105"/>
+      <c r="BN51" s="105"/>
+      <c r="BO51" s="105"/>
+      <c r="BP51" s="105"/>
+      <c r="BQ51" s="105"/>
+      <c r="BR51" s="105"/>
+      <c r="BS51" s="105"/>
+      <c r="BT51" s="105"/>
+      <c r="BU51" s="105"/>
+      <c r="BV51" s="105"/>
+      <c r="BW51" s="105"/>
+      <c r="BX51" s="105"/>
+      <c r="BY51" s="105"/>
+      <c r="BZ51" s="105"/>
+      <c r="CA51" s="105"/>
+      <c r="CB51" s="105"/>
+      <c r="CC51" s="105"/>
+      <c r="CD51" s="105"/>
+      <c r="CE51" s="105"/>
+      <c r="CF51" s="105"/>
+      <c r="CG51" s="105"/>
+      <c r="CH51" s="105"/>
+      <c r="CI51" s="105"/>
+      <c r="CJ51" s="105"/>
+      <c r="CK51" s="105"/>
+      <c r="CL51" s="105"/>
+      <c r="CM51" s="105"/>
+      <c r="CN51" s="105"/>
+      <c r="CO51" s="105"/>
+      <c r="CP51" s="105"/>
+      <c r="CQ51" s="105"/>
+      <c r="CR51" s="105"/>
+      <c r="CS51" s="105"/>
+      <c r="CT51" s="105"/>
+      <c r="CU51" s="105"/>
+      <c r="CV51" s="105"/>
+      <c r="CW51" s="105"/>
+      <c r="CX51" s="105"/>
+      <c r="CY51" s="105"/>
+      <c r="CZ51" s="105"/>
+      <c r="DA51" s="105"/>
+      <c r="DB51" s="105"/>
+      <c r="DC51" s="105"/>
+      <c r="DD51" s="105"/>
+      <c r="DE51" s="105"/>
+      <c r="DF51" s="105"/>
+      <c r="DG51" s="105"/>
+      <c r="DH51" s="105"/>
+      <c r="DI51" s="105"/>
     </row>
     <row r="52" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -8228,146 +8216,146 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100" t="str">
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105" t="str">
         <f>IF(ISBLANK(D52),"",D52)</f>
         <v/>
       </c>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
-      <c r="U52" s="100"/>
-      <c r="V52" s="100"/>
-      <c r="W52" s="100"/>
-      <c r="X52" s="100" t="str">
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="105"/>
+      <c r="X52" s="105" t="str">
         <f t="shared" ref="X52" si="43">IF(ISBLANK(N52),"",N52)</f>
         <v/>
       </c>
-      <c r="Y52" s="100"/>
-      <c r="Z52" s="100"/>
-      <c r="AA52" s="100"/>
-      <c r="AB52" s="100"/>
-      <c r="AC52" s="100"/>
-      <c r="AD52" s="100"/>
-      <c r="AE52" s="100"/>
-      <c r="AF52" s="100"/>
-      <c r="AG52" s="100"/>
-      <c r="AH52" s="100" t="str">
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="105"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="105"/>
+      <c r="AD52" s="105"/>
+      <c r="AE52" s="105"/>
+      <c r="AF52" s="105"/>
+      <c r="AG52" s="105"/>
+      <c r="AH52" s="105" t="str">
         <f t="shared" ref="AH52" si="44">IF(ISBLANK(X52),"",X52)</f>
         <v/>
       </c>
-      <c r="AI52" s="100"/>
-      <c r="AJ52" s="100"/>
-      <c r="AK52" s="100"/>
-      <c r="AL52" s="100"/>
-      <c r="AM52" s="100"/>
-      <c r="AN52" s="100"/>
-      <c r="AO52" s="100"/>
-      <c r="AP52" s="100"/>
-      <c r="AQ52" s="100"/>
-      <c r="AR52" s="100" t="str">
+      <c r="AI52" s="105"/>
+      <c r="AJ52" s="105"/>
+      <c r="AK52" s="105"/>
+      <c r="AL52" s="105"/>
+      <c r="AM52" s="105"/>
+      <c r="AN52" s="105"/>
+      <c r="AO52" s="105"/>
+      <c r="AP52" s="105"/>
+      <c r="AQ52" s="105"/>
+      <c r="AR52" s="105" t="str">
         <f t="shared" ref="AR52" si="45">IF(ISBLANK(AH52),"",AH52)</f>
         <v/>
       </c>
-      <c r="AS52" s="100"/>
-      <c r="AT52" s="100"/>
-      <c r="AU52" s="100"/>
-      <c r="AV52" s="100"/>
-      <c r="AW52" s="100"/>
-      <c r="AX52" s="100"/>
-      <c r="AY52" s="100"/>
-      <c r="AZ52" s="100"/>
-      <c r="BA52" s="100"/>
-      <c r="BB52" s="100" t="str">
+      <c r="AS52" s="105"/>
+      <c r="AT52" s="105"/>
+      <c r="AU52" s="105"/>
+      <c r="AV52" s="105"/>
+      <c r="AW52" s="105"/>
+      <c r="AX52" s="105"/>
+      <c r="AY52" s="105"/>
+      <c r="AZ52" s="105"/>
+      <c r="BA52" s="105"/>
+      <c r="BB52" s="105" t="str">
         <f t="shared" ref="BB52" si="46">IF(ISBLANK(AR52),"",AR52)</f>
         <v/>
       </c>
-      <c r="BC52" s="100"/>
-      <c r="BD52" s="100"/>
-      <c r="BE52" s="100"/>
-      <c r="BF52" s="100"/>
-      <c r="BG52" s="100"/>
-      <c r="BH52" s="100"/>
-      <c r="BI52" s="100"/>
-      <c r="BJ52" s="100"/>
-      <c r="BK52" s="100"/>
-      <c r="BL52" s="100" t="str">
+      <c r="BC52" s="105"/>
+      <c r="BD52" s="105"/>
+      <c r="BE52" s="105"/>
+      <c r="BF52" s="105"/>
+      <c r="BG52" s="105"/>
+      <c r="BH52" s="105"/>
+      <c r="BI52" s="105"/>
+      <c r="BJ52" s="105"/>
+      <c r="BK52" s="105"/>
+      <c r="BL52" s="105" t="str">
         <f t="shared" ref="BL52" si="47">IF(ISBLANK(BB52),"",BB52)</f>
         <v/>
       </c>
-      <c r="BM52" s="100"/>
-      <c r="BN52" s="100"/>
-      <c r="BO52" s="100"/>
-      <c r="BP52" s="100"/>
-      <c r="BQ52" s="100"/>
-      <c r="BR52" s="100"/>
-      <c r="BS52" s="100"/>
-      <c r="BT52" s="100"/>
-      <c r="BU52" s="100"/>
-      <c r="BV52" s="100" t="str">
+      <c r="BM52" s="105"/>
+      <c r="BN52" s="105"/>
+      <c r="BO52" s="105"/>
+      <c r="BP52" s="105"/>
+      <c r="BQ52" s="105"/>
+      <c r="BR52" s="105"/>
+      <c r="BS52" s="105"/>
+      <c r="BT52" s="105"/>
+      <c r="BU52" s="105"/>
+      <c r="BV52" s="105" t="str">
         <f t="shared" ref="BV52" si="48">IF(ISBLANK(BL52),"",BL52)</f>
         <v/>
       </c>
-      <c r="BW52" s="100"/>
-      <c r="BX52" s="100"/>
-      <c r="BY52" s="100"/>
-      <c r="BZ52" s="100"/>
-      <c r="CA52" s="100"/>
-      <c r="CB52" s="100"/>
-      <c r="CC52" s="100"/>
-      <c r="CD52" s="100"/>
-      <c r="CE52" s="100"/>
-      <c r="CF52" s="100" t="str">
+      <c r="BW52" s="105"/>
+      <c r="BX52" s="105"/>
+      <c r="BY52" s="105"/>
+      <c r="BZ52" s="105"/>
+      <c r="CA52" s="105"/>
+      <c r="CB52" s="105"/>
+      <c r="CC52" s="105"/>
+      <c r="CD52" s="105"/>
+      <c r="CE52" s="105"/>
+      <c r="CF52" s="105" t="str">
         <f t="shared" ref="CF52" si="49">IF(ISBLANK(BV52),"",BV52)</f>
         <v/>
       </c>
-      <c r="CG52" s="100"/>
-      <c r="CH52" s="100"/>
-      <c r="CI52" s="100"/>
-      <c r="CJ52" s="100"/>
-      <c r="CK52" s="100"/>
-      <c r="CL52" s="100"/>
-      <c r="CM52" s="100"/>
-      <c r="CN52" s="100"/>
-      <c r="CO52" s="100"/>
-      <c r="CP52" s="100" t="str">
+      <c r="CG52" s="105"/>
+      <c r="CH52" s="105"/>
+      <c r="CI52" s="105"/>
+      <c r="CJ52" s="105"/>
+      <c r="CK52" s="105"/>
+      <c r="CL52" s="105"/>
+      <c r="CM52" s="105"/>
+      <c r="CN52" s="105"/>
+      <c r="CO52" s="105"/>
+      <c r="CP52" s="105" t="str">
         <f t="shared" ref="CP52" si="50">IF(ISBLANK(CF52),"",CF52)</f>
         <v/>
       </c>
-      <c r="CQ52" s="100"/>
-      <c r="CR52" s="100"/>
-      <c r="CS52" s="100"/>
-      <c r="CT52" s="100"/>
-      <c r="CU52" s="100"/>
-      <c r="CV52" s="100"/>
-      <c r="CW52" s="100"/>
-      <c r="CX52" s="100"/>
-      <c r="CY52" s="100"/>
-      <c r="CZ52" s="100" t="str">
+      <c r="CQ52" s="105"/>
+      <c r="CR52" s="105"/>
+      <c r="CS52" s="105"/>
+      <c r="CT52" s="105"/>
+      <c r="CU52" s="105"/>
+      <c r="CV52" s="105"/>
+      <c r="CW52" s="105"/>
+      <c r="CX52" s="105"/>
+      <c r="CY52" s="105"/>
+      <c r="CZ52" s="105" t="str">
         <f t="shared" ref="CZ52" si="51">IF(ISBLANK(CP52),"",CP52)</f>
         <v/>
       </c>
-      <c r="DA52" s="100"/>
-      <c r="DB52" s="100"/>
-      <c r="DC52" s="100"/>
-      <c r="DD52" s="100"/>
-      <c r="DE52" s="100"/>
-      <c r="DF52" s="100"/>
-      <c r="DG52" s="100"/>
-      <c r="DH52" s="100"/>
-      <c r="DI52" s="100"/>
+      <c r="DA52" s="105"/>
+      <c r="DB52" s="105"/>
+      <c r="DC52" s="105"/>
+      <c r="DD52" s="105"/>
+      <c r="DE52" s="105"/>
+      <c r="DF52" s="105"/>
+      <c r="DG52" s="105"/>
+      <c r="DH52" s="105"/>
+      <c r="DI52" s="105"/>
     </row>
     <row r="53" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -8375,461 +8363,461 @@
         <v>37</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
-      <c r="U53" s="100"/>
-      <c r="V53" s="100"/>
-      <c r="W53" s="100"/>
-      <c r="X53" s="100"/>
-      <c r="Y53" s="100"/>
-      <c r="Z53" s="100"/>
-      <c r="AA53" s="100"/>
-      <c r="AB53" s="100"/>
-      <c r="AC53" s="100"/>
-      <c r="AD53" s="100"/>
-      <c r="AE53" s="100"/>
-      <c r="AF53" s="100"/>
-      <c r="AG53" s="100"/>
-      <c r="AH53" s="100"/>
-      <c r="AI53" s="100"/>
-      <c r="AJ53" s="100"/>
-      <c r="AK53" s="100"/>
-      <c r="AL53" s="100"/>
-      <c r="AM53" s="100"/>
-      <c r="AN53" s="100"/>
-      <c r="AO53" s="100"/>
-      <c r="AP53" s="100"/>
-      <c r="AQ53" s="100"/>
-      <c r="AR53" s="100"/>
-      <c r="AS53" s="100"/>
-      <c r="AT53" s="100"/>
-      <c r="AU53" s="100"/>
-      <c r="AV53" s="100"/>
-      <c r="AW53" s="100"/>
-      <c r="AX53" s="100"/>
-      <c r="AY53" s="100"/>
-      <c r="AZ53" s="100"/>
-      <c r="BA53" s="100"/>
-      <c r="BB53" s="100"/>
-      <c r="BC53" s="100"/>
-      <c r="BD53" s="100"/>
-      <c r="BE53" s="100"/>
-      <c r="BF53" s="100"/>
-      <c r="BG53" s="100"/>
-      <c r="BH53" s="100"/>
-      <c r="BI53" s="100"/>
-      <c r="BJ53" s="100"/>
-      <c r="BK53" s="100"/>
-      <c r="BL53" s="100"/>
-      <c r="BM53" s="100"/>
-      <c r="BN53" s="100"/>
-      <c r="BO53" s="100"/>
-      <c r="BP53" s="100"/>
-      <c r="BQ53" s="100"/>
-      <c r="BR53" s="100"/>
-      <c r="BS53" s="100"/>
-      <c r="BT53" s="100"/>
-      <c r="BU53" s="100"/>
-      <c r="BV53" s="100"/>
-      <c r="BW53" s="100"/>
-      <c r="BX53" s="100"/>
-      <c r="BY53" s="100"/>
-      <c r="BZ53" s="100"/>
-      <c r="CA53" s="100"/>
-      <c r="CB53" s="100"/>
-      <c r="CC53" s="100"/>
-      <c r="CD53" s="100"/>
-      <c r="CE53" s="100"/>
-      <c r="CF53" s="100"/>
-      <c r="CG53" s="100"/>
-      <c r="CH53" s="100"/>
-      <c r="CI53" s="100"/>
-      <c r="CJ53" s="100"/>
-      <c r="CK53" s="100"/>
-      <c r="CL53" s="100"/>
-      <c r="CM53" s="100"/>
-      <c r="CN53" s="100"/>
-      <c r="CO53" s="100"/>
-      <c r="CP53" s="100"/>
-      <c r="CQ53" s="100"/>
-      <c r="CR53" s="100"/>
-      <c r="CS53" s="100"/>
-      <c r="CT53" s="100"/>
-      <c r="CU53" s="100"/>
-      <c r="CV53" s="100"/>
-      <c r="CW53" s="100"/>
-      <c r="CX53" s="100"/>
-      <c r="CY53" s="100"/>
-      <c r="CZ53" s="100"/>
-      <c r="DA53" s="100"/>
-      <c r="DB53" s="100"/>
-      <c r="DC53" s="100"/>
-      <c r="DD53" s="100"/>
-      <c r="DE53" s="100"/>
-      <c r="DF53" s="100"/>
-      <c r="DG53" s="100"/>
-      <c r="DH53" s="100"/>
-      <c r="DI53" s="100"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="105"/>
+      <c r="T53" s="105"/>
+      <c r="U53" s="105"/>
+      <c r="V53" s="105"/>
+      <c r="W53" s="105"/>
+      <c r="X53" s="105"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
+      <c r="AB53" s="105"/>
+      <c r="AC53" s="105"/>
+      <c r="AD53" s="105"/>
+      <c r="AE53" s="105"/>
+      <c r="AF53" s="105"/>
+      <c r="AG53" s="105"/>
+      <c r="AH53" s="105"/>
+      <c r="AI53" s="105"/>
+      <c r="AJ53" s="105"/>
+      <c r="AK53" s="105"/>
+      <c r="AL53" s="105"/>
+      <c r="AM53" s="105"/>
+      <c r="AN53" s="105"/>
+      <c r="AO53" s="105"/>
+      <c r="AP53" s="105"/>
+      <c r="AQ53" s="105"/>
+      <c r="AR53" s="105"/>
+      <c r="AS53" s="105"/>
+      <c r="AT53" s="105"/>
+      <c r="AU53" s="105"/>
+      <c r="AV53" s="105"/>
+      <c r="AW53" s="105"/>
+      <c r="AX53" s="105"/>
+      <c r="AY53" s="105"/>
+      <c r="AZ53" s="105"/>
+      <c r="BA53" s="105"/>
+      <c r="BB53" s="105"/>
+      <c r="BC53" s="105"/>
+      <c r="BD53" s="105"/>
+      <c r="BE53" s="105"/>
+      <c r="BF53" s="105"/>
+      <c r="BG53" s="105"/>
+      <c r="BH53" s="105"/>
+      <c r="BI53" s="105"/>
+      <c r="BJ53" s="105"/>
+      <c r="BK53" s="105"/>
+      <c r="BL53" s="105"/>
+      <c r="BM53" s="105"/>
+      <c r="BN53" s="105"/>
+      <c r="BO53" s="105"/>
+      <c r="BP53" s="105"/>
+      <c r="BQ53" s="105"/>
+      <c r="BR53" s="105"/>
+      <c r="BS53" s="105"/>
+      <c r="BT53" s="105"/>
+      <c r="BU53" s="105"/>
+      <c r="BV53" s="105"/>
+      <c r="BW53" s="105"/>
+      <c r="BX53" s="105"/>
+      <c r="BY53" s="105"/>
+      <c r="BZ53" s="105"/>
+      <c r="CA53" s="105"/>
+      <c r="CB53" s="105"/>
+      <c r="CC53" s="105"/>
+      <c r="CD53" s="105"/>
+      <c r="CE53" s="105"/>
+      <c r="CF53" s="105"/>
+      <c r="CG53" s="105"/>
+      <c r="CH53" s="105"/>
+      <c r="CI53" s="105"/>
+      <c r="CJ53" s="105"/>
+      <c r="CK53" s="105"/>
+      <c r="CL53" s="105"/>
+      <c r="CM53" s="105"/>
+      <c r="CN53" s="105"/>
+      <c r="CO53" s="105"/>
+      <c r="CP53" s="105"/>
+      <c r="CQ53" s="105"/>
+      <c r="CR53" s="105"/>
+      <c r="CS53" s="105"/>
+      <c r="CT53" s="105"/>
+      <c r="CU53" s="105"/>
+      <c r="CV53" s="105"/>
+      <c r="CW53" s="105"/>
+      <c r="CX53" s="105"/>
+      <c r="CY53" s="105"/>
+      <c r="CZ53" s="105"/>
+      <c r="DA53" s="105"/>
+      <c r="DB53" s="105"/>
+      <c r="DC53" s="105"/>
+      <c r="DD53" s="105"/>
+      <c r="DE53" s="105"/>
+      <c r="DF53" s="105"/>
+      <c r="DG53" s="105"/>
+      <c r="DH53" s="105"/>
+      <c r="DI53" s="105"/>
     </row>
     <row r="54" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="100"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="100"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="100"/>
-      <c r="T54" s="100"/>
-      <c r="U54" s="100"/>
-      <c r="V54" s="100"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="100"/>
-      <c r="AA54" s="100"/>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="100"/>
-      <c r="AE54" s="100"/>
-      <c r="AF54" s="100"/>
-      <c r="AG54" s="100"/>
-      <c r="AH54" s="100"/>
-      <c r="AI54" s="100"/>
-      <c r="AJ54" s="100"/>
-      <c r="AK54" s="100"/>
-      <c r="AL54" s="100"/>
-      <c r="AM54" s="100"/>
-      <c r="AN54" s="100"/>
-      <c r="AO54" s="100"/>
-      <c r="AP54" s="100"/>
-      <c r="AQ54" s="100"/>
-      <c r="AR54" s="100"/>
-      <c r="AS54" s="100"/>
-      <c r="AT54" s="100"/>
-      <c r="AU54" s="100"/>
-      <c r="AV54" s="100"/>
-      <c r="AW54" s="100"/>
-      <c r="AX54" s="100"/>
-      <c r="AY54" s="100"/>
-      <c r="AZ54" s="100"/>
-      <c r="BA54" s="100"/>
-      <c r="BB54" s="100"/>
-      <c r="BC54" s="100"/>
-      <c r="BD54" s="100"/>
-      <c r="BE54" s="100"/>
-      <c r="BF54" s="100"/>
-      <c r="BG54" s="100"/>
-      <c r="BH54" s="100"/>
-      <c r="BI54" s="100"/>
-      <c r="BJ54" s="100"/>
-      <c r="BK54" s="100"/>
-      <c r="BL54" s="100"/>
-      <c r="BM54" s="100"/>
-      <c r="BN54" s="100"/>
-      <c r="BO54" s="100"/>
-      <c r="BP54" s="100"/>
-      <c r="BQ54" s="100"/>
-      <c r="BR54" s="100"/>
-      <c r="BS54" s="100"/>
-      <c r="BT54" s="100"/>
-      <c r="BU54" s="100"/>
-      <c r="BV54" s="100"/>
-      <c r="BW54" s="100"/>
-      <c r="BX54" s="100"/>
-      <c r="BY54" s="100"/>
-      <c r="BZ54" s="100"/>
-      <c r="CA54" s="100"/>
-      <c r="CB54" s="100"/>
-      <c r="CC54" s="100"/>
-      <c r="CD54" s="100"/>
-      <c r="CE54" s="100"/>
-      <c r="CF54" s="100"/>
-      <c r="CG54" s="100"/>
-      <c r="CH54" s="100"/>
-      <c r="CI54" s="100"/>
-      <c r="CJ54" s="100"/>
-      <c r="CK54" s="100"/>
-      <c r="CL54" s="100"/>
-      <c r="CM54" s="100"/>
-      <c r="CN54" s="100"/>
-      <c r="CO54" s="100"/>
-      <c r="CP54" s="100"/>
-      <c r="CQ54" s="100"/>
-      <c r="CR54" s="100"/>
-      <c r="CS54" s="100"/>
-      <c r="CT54" s="100"/>
-      <c r="CU54" s="100"/>
-      <c r="CV54" s="100"/>
-      <c r="CW54" s="100"/>
-      <c r="CX54" s="100"/>
-      <c r="CY54" s="100"/>
-      <c r="CZ54" s="100"/>
-      <c r="DA54" s="100"/>
-      <c r="DB54" s="100"/>
-      <c r="DC54" s="100"/>
-      <c r="DD54" s="100"/>
-      <c r="DE54" s="100"/>
-      <c r="DF54" s="100"/>
-      <c r="DG54" s="100"/>
-      <c r="DH54" s="100"/>
-      <c r="DI54" s="100"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
+      <c r="S54" s="105"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="105"/>
+      <c r="V54" s="105"/>
+      <c r="W54" s="105"/>
+      <c r="X54" s="105"/>
+      <c r="Y54" s="105"/>
+      <c r="Z54" s="105"/>
+      <c r="AA54" s="105"/>
+      <c r="AB54" s="105"/>
+      <c r="AC54" s="105"/>
+      <c r="AD54" s="105"/>
+      <c r="AE54" s="105"/>
+      <c r="AF54" s="105"/>
+      <c r="AG54" s="105"/>
+      <c r="AH54" s="105"/>
+      <c r="AI54" s="105"/>
+      <c r="AJ54" s="105"/>
+      <c r="AK54" s="105"/>
+      <c r="AL54" s="105"/>
+      <c r="AM54" s="105"/>
+      <c r="AN54" s="105"/>
+      <c r="AO54" s="105"/>
+      <c r="AP54" s="105"/>
+      <c r="AQ54" s="105"/>
+      <c r="AR54" s="105"/>
+      <c r="AS54" s="105"/>
+      <c r="AT54" s="105"/>
+      <c r="AU54" s="105"/>
+      <c r="AV54" s="105"/>
+      <c r="AW54" s="105"/>
+      <c r="AX54" s="105"/>
+      <c r="AY54" s="105"/>
+      <c r="AZ54" s="105"/>
+      <c r="BA54" s="105"/>
+      <c r="BB54" s="105"/>
+      <c r="BC54" s="105"/>
+      <c r="BD54" s="105"/>
+      <c r="BE54" s="105"/>
+      <c r="BF54" s="105"/>
+      <c r="BG54" s="105"/>
+      <c r="BH54" s="105"/>
+      <c r="BI54" s="105"/>
+      <c r="BJ54" s="105"/>
+      <c r="BK54" s="105"/>
+      <c r="BL54" s="105"/>
+      <c r="BM54" s="105"/>
+      <c r="BN54" s="105"/>
+      <c r="BO54" s="105"/>
+      <c r="BP54" s="105"/>
+      <c r="BQ54" s="105"/>
+      <c r="BR54" s="105"/>
+      <c r="BS54" s="105"/>
+      <c r="BT54" s="105"/>
+      <c r="BU54" s="105"/>
+      <c r="BV54" s="105"/>
+      <c r="BW54" s="105"/>
+      <c r="BX54" s="105"/>
+      <c r="BY54" s="105"/>
+      <c r="BZ54" s="105"/>
+      <c r="CA54" s="105"/>
+      <c r="CB54" s="105"/>
+      <c r="CC54" s="105"/>
+      <c r="CD54" s="105"/>
+      <c r="CE54" s="105"/>
+      <c r="CF54" s="105"/>
+      <c r="CG54" s="105"/>
+      <c r="CH54" s="105"/>
+      <c r="CI54" s="105"/>
+      <c r="CJ54" s="105"/>
+      <c r="CK54" s="105"/>
+      <c r="CL54" s="105"/>
+      <c r="CM54" s="105"/>
+      <c r="CN54" s="105"/>
+      <c r="CO54" s="105"/>
+      <c r="CP54" s="105"/>
+      <c r="CQ54" s="105"/>
+      <c r="CR54" s="105"/>
+      <c r="CS54" s="105"/>
+      <c r="CT54" s="105"/>
+      <c r="CU54" s="105"/>
+      <c r="CV54" s="105"/>
+      <c r="CW54" s="105"/>
+      <c r="CX54" s="105"/>
+      <c r="CY54" s="105"/>
+      <c r="CZ54" s="105"/>
+      <c r="DA54" s="105"/>
+      <c r="DB54" s="105"/>
+      <c r="DC54" s="105"/>
+      <c r="DD54" s="105"/>
+      <c r="DE54" s="105"/>
+      <c r="DF54" s="105"/>
+      <c r="DG54" s="105"/>
+      <c r="DH54" s="105"/>
+      <c r="DI54" s="105"/>
     </row>
     <row r="55" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="100"/>
-      <c r="M55" s="100"/>
-      <c r="N55" s="100"/>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="100"/>
-      <c r="R55" s="100"/>
-      <c r="S55" s="100"/>
-      <c r="T55" s="100"/>
-      <c r="U55" s="100"/>
-      <c r="V55" s="100"/>
-      <c r="W55" s="100"/>
-      <c r="X55" s="100"/>
-      <c r="Y55" s="100"/>
-      <c r="Z55" s="100"/>
-      <c r="AA55" s="100"/>
-      <c r="AB55" s="100"/>
-      <c r="AC55" s="100"/>
-      <c r="AD55" s="100"/>
-      <c r="AE55" s="100"/>
-      <c r="AF55" s="100"/>
-      <c r="AG55" s="100"/>
-      <c r="AH55" s="100"/>
-      <c r="AI55" s="100"/>
-      <c r="AJ55" s="100"/>
-      <c r="AK55" s="100"/>
-      <c r="AL55" s="100"/>
-      <c r="AM55" s="100"/>
-      <c r="AN55" s="100"/>
-      <c r="AO55" s="100"/>
-      <c r="AP55" s="100"/>
-      <c r="AQ55" s="100"/>
-      <c r="AR55" s="100"/>
-      <c r="AS55" s="100"/>
-      <c r="AT55" s="100"/>
-      <c r="AU55" s="100"/>
-      <c r="AV55" s="100"/>
-      <c r="AW55" s="100"/>
-      <c r="AX55" s="100"/>
-      <c r="AY55" s="100"/>
-      <c r="AZ55" s="100"/>
-      <c r="BA55" s="100"/>
-      <c r="BB55" s="100"/>
-      <c r="BC55" s="100"/>
-      <c r="BD55" s="100"/>
-      <c r="BE55" s="100"/>
-      <c r="BF55" s="100"/>
-      <c r="BG55" s="100"/>
-      <c r="BH55" s="100"/>
-      <c r="BI55" s="100"/>
-      <c r="BJ55" s="100"/>
-      <c r="BK55" s="100"/>
-      <c r="BL55" s="100"/>
-      <c r="BM55" s="100"/>
-      <c r="BN55" s="100"/>
-      <c r="BO55" s="100"/>
-      <c r="BP55" s="100"/>
-      <c r="BQ55" s="100"/>
-      <c r="BR55" s="100"/>
-      <c r="BS55" s="100"/>
-      <c r="BT55" s="100"/>
-      <c r="BU55" s="100"/>
-      <c r="BV55" s="100"/>
-      <c r="BW55" s="100"/>
-      <c r="BX55" s="100"/>
-      <c r="BY55" s="100"/>
-      <c r="BZ55" s="100"/>
-      <c r="CA55" s="100"/>
-      <c r="CB55" s="100"/>
-      <c r="CC55" s="100"/>
-      <c r="CD55" s="100"/>
-      <c r="CE55" s="100"/>
-      <c r="CF55" s="100"/>
-      <c r="CG55" s="100"/>
-      <c r="CH55" s="100"/>
-      <c r="CI55" s="100"/>
-      <c r="CJ55" s="100"/>
-      <c r="CK55" s="100"/>
-      <c r="CL55" s="100"/>
-      <c r="CM55" s="100"/>
-      <c r="CN55" s="100"/>
-      <c r="CO55" s="100"/>
-      <c r="CP55" s="100"/>
-      <c r="CQ55" s="100"/>
-      <c r="CR55" s="100"/>
-      <c r="CS55" s="100"/>
-      <c r="CT55" s="100"/>
-      <c r="CU55" s="100"/>
-      <c r="CV55" s="100"/>
-      <c r="CW55" s="100"/>
-      <c r="CX55" s="100"/>
-      <c r="CY55" s="100"/>
-      <c r="CZ55" s="100"/>
-      <c r="DA55" s="100"/>
-      <c r="DB55" s="100"/>
-      <c r="DC55" s="100"/>
-      <c r="DD55" s="100"/>
-      <c r="DE55" s="100"/>
-      <c r="DF55" s="100"/>
-      <c r="DG55" s="100"/>
-      <c r="DH55" s="100"/>
-      <c r="DI55" s="100"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="105"/>
+      <c r="X55" s="105"/>
+      <c r="Y55" s="105"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="105"/>
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="105"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="105"/>
+      <c r="AJ55" s="105"/>
+      <c r="AK55" s="105"/>
+      <c r="AL55" s="105"/>
+      <c r="AM55" s="105"/>
+      <c r="AN55" s="105"/>
+      <c r="AO55" s="105"/>
+      <c r="AP55" s="105"/>
+      <c r="AQ55" s="105"/>
+      <c r="AR55" s="105"/>
+      <c r="AS55" s="105"/>
+      <c r="AT55" s="105"/>
+      <c r="AU55" s="105"/>
+      <c r="AV55" s="105"/>
+      <c r="AW55" s="105"/>
+      <c r="AX55" s="105"/>
+      <c r="AY55" s="105"/>
+      <c r="AZ55" s="105"/>
+      <c r="BA55" s="105"/>
+      <c r="BB55" s="105"/>
+      <c r="BC55" s="105"/>
+      <c r="BD55" s="105"/>
+      <c r="BE55" s="105"/>
+      <c r="BF55" s="105"/>
+      <c r="BG55" s="105"/>
+      <c r="BH55" s="105"/>
+      <c r="BI55" s="105"/>
+      <c r="BJ55" s="105"/>
+      <c r="BK55" s="105"/>
+      <c r="BL55" s="105"/>
+      <c r="BM55" s="105"/>
+      <c r="BN55" s="105"/>
+      <c r="BO55" s="105"/>
+      <c r="BP55" s="105"/>
+      <c r="BQ55" s="105"/>
+      <c r="BR55" s="105"/>
+      <c r="BS55" s="105"/>
+      <c r="BT55" s="105"/>
+      <c r="BU55" s="105"/>
+      <c r="BV55" s="105"/>
+      <c r="BW55" s="105"/>
+      <c r="BX55" s="105"/>
+      <c r="BY55" s="105"/>
+      <c r="BZ55" s="105"/>
+      <c r="CA55" s="105"/>
+      <c r="CB55" s="105"/>
+      <c r="CC55" s="105"/>
+      <c r="CD55" s="105"/>
+      <c r="CE55" s="105"/>
+      <c r="CF55" s="105"/>
+      <c r="CG55" s="105"/>
+      <c r="CH55" s="105"/>
+      <c r="CI55" s="105"/>
+      <c r="CJ55" s="105"/>
+      <c r="CK55" s="105"/>
+      <c r="CL55" s="105"/>
+      <c r="CM55" s="105"/>
+      <c r="CN55" s="105"/>
+      <c r="CO55" s="105"/>
+      <c r="CP55" s="105"/>
+      <c r="CQ55" s="105"/>
+      <c r="CR55" s="105"/>
+      <c r="CS55" s="105"/>
+      <c r="CT55" s="105"/>
+      <c r="CU55" s="105"/>
+      <c r="CV55" s="105"/>
+      <c r="CW55" s="105"/>
+      <c r="CX55" s="105"/>
+      <c r="CY55" s="105"/>
+      <c r="CZ55" s="105"/>
+      <c r="DA55" s="105"/>
+      <c r="DB55" s="105"/>
+      <c r="DC55" s="105"/>
+      <c r="DD55" s="105"/>
+      <c r="DE55" s="105"/>
+      <c r="DF55" s="105"/>
+      <c r="DG55" s="105"/>
+      <c r="DH55" s="105"/>
+      <c r="DI55" s="105"/>
     </row>
     <row r="56" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
-      <c r="V56" s="100"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="100"/>
-      <c r="Y56" s="100"/>
-      <c r="Z56" s="100"/>
-      <c r="AA56" s="100"/>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="100"/>
-      <c r="AD56" s="100"/>
-      <c r="AE56" s="100"/>
-      <c r="AF56" s="100"/>
-      <c r="AG56" s="100"/>
-      <c r="AH56" s="100"/>
-      <c r="AI56" s="100"/>
-      <c r="AJ56" s="100"/>
-      <c r="AK56" s="100"/>
-      <c r="AL56" s="100"/>
-      <c r="AM56" s="100"/>
-      <c r="AN56" s="100"/>
-      <c r="AO56" s="100"/>
-      <c r="AP56" s="100"/>
-      <c r="AQ56" s="100"/>
-      <c r="AR56" s="100"/>
-      <c r="AS56" s="100"/>
-      <c r="AT56" s="100"/>
-      <c r="AU56" s="100"/>
-      <c r="AV56" s="100"/>
-      <c r="AW56" s="100"/>
-      <c r="AX56" s="100"/>
-      <c r="AY56" s="100"/>
-      <c r="AZ56" s="100"/>
-      <c r="BA56" s="100"/>
-      <c r="BB56" s="100"/>
-      <c r="BC56" s="100"/>
-      <c r="BD56" s="100"/>
-      <c r="BE56" s="100"/>
-      <c r="BF56" s="100"/>
-      <c r="BG56" s="100"/>
-      <c r="BH56" s="100"/>
-      <c r="BI56" s="100"/>
-      <c r="BJ56" s="100"/>
-      <c r="BK56" s="100"/>
-      <c r="BL56" s="100"/>
-      <c r="BM56" s="100"/>
-      <c r="BN56" s="100"/>
-      <c r="BO56" s="100"/>
-      <c r="BP56" s="100"/>
-      <c r="BQ56" s="100"/>
-      <c r="BR56" s="100"/>
-      <c r="BS56" s="100"/>
-      <c r="BT56" s="100"/>
-      <c r="BU56" s="100"/>
-      <c r="BV56" s="100"/>
-      <c r="BW56" s="100"/>
-      <c r="BX56" s="100"/>
-      <c r="BY56" s="100"/>
-      <c r="BZ56" s="100"/>
-      <c r="CA56" s="100"/>
-      <c r="CB56" s="100"/>
-      <c r="CC56" s="100"/>
-      <c r="CD56" s="100"/>
-      <c r="CE56" s="100"/>
-      <c r="CF56" s="100"/>
-      <c r="CG56" s="100"/>
-      <c r="CH56" s="100"/>
-      <c r="CI56" s="100"/>
-      <c r="CJ56" s="100"/>
-      <c r="CK56" s="100"/>
-      <c r="CL56" s="100"/>
-      <c r="CM56" s="100"/>
-      <c r="CN56" s="100"/>
-      <c r="CO56" s="100"/>
-      <c r="CP56" s="100"/>
-      <c r="CQ56" s="100"/>
-      <c r="CR56" s="100"/>
-      <c r="CS56" s="100"/>
-      <c r="CT56" s="100"/>
-      <c r="CU56" s="100"/>
-      <c r="CV56" s="100"/>
-      <c r="CW56" s="100"/>
-      <c r="CX56" s="100"/>
-      <c r="CY56" s="100"/>
-      <c r="CZ56" s="100"/>
-      <c r="DA56" s="100"/>
-      <c r="DB56" s="100"/>
-      <c r="DC56" s="100"/>
-      <c r="DD56" s="100"/>
-      <c r="DE56" s="100"/>
-      <c r="DF56" s="100"/>
-      <c r="DG56" s="100"/>
-      <c r="DH56" s="100"/>
-      <c r="DI56" s="100"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="105"/>
+      <c r="R56" s="105"/>
+      <c r="S56" s="105"/>
+      <c r="T56" s="105"/>
+      <c r="U56" s="105"/>
+      <c r="V56" s="105"/>
+      <c r="W56" s="105"/>
+      <c r="X56" s="105"/>
+      <c r="Y56" s="105"/>
+      <c r="Z56" s="105"/>
+      <c r="AA56" s="105"/>
+      <c r="AB56" s="105"/>
+      <c r="AC56" s="105"/>
+      <c r="AD56" s="105"/>
+      <c r="AE56" s="105"/>
+      <c r="AF56" s="105"/>
+      <c r="AG56" s="105"/>
+      <c r="AH56" s="105"/>
+      <c r="AI56" s="105"/>
+      <c r="AJ56" s="105"/>
+      <c r="AK56" s="105"/>
+      <c r="AL56" s="105"/>
+      <c r="AM56" s="105"/>
+      <c r="AN56" s="105"/>
+      <c r="AO56" s="105"/>
+      <c r="AP56" s="105"/>
+      <c r="AQ56" s="105"/>
+      <c r="AR56" s="105"/>
+      <c r="AS56" s="105"/>
+      <c r="AT56" s="105"/>
+      <c r="AU56" s="105"/>
+      <c r="AV56" s="105"/>
+      <c r="AW56" s="105"/>
+      <c r="AX56" s="105"/>
+      <c r="AY56" s="105"/>
+      <c r="AZ56" s="105"/>
+      <c r="BA56" s="105"/>
+      <c r="BB56" s="105"/>
+      <c r="BC56" s="105"/>
+      <c r="BD56" s="105"/>
+      <c r="BE56" s="105"/>
+      <c r="BF56" s="105"/>
+      <c r="BG56" s="105"/>
+      <c r="BH56" s="105"/>
+      <c r="BI56" s="105"/>
+      <c r="BJ56" s="105"/>
+      <c r="BK56" s="105"/>
+      <c r="BL56" s="105"/>
+      <c r="BM56" s="105"/>
+      <c r="BN56" s="105"/>
+      <c r="BO56" s="105"/>
+      <c r="BP56" s="105"/>
+      <c r="BQ56" s="105"/>
+      <c r="BR56" s="105"/>
+      <c r="BS56" s="105"/>
+      <c r="BT56" s="105"/>
+      <c r="BU56" s="105"/>
+      <c r="BV56" s="105"/>
+      <c r="BW56" s="105"/>
+      <c r="BX56" s="105"/>
+      <c r="BY56" s="105"/>
+      <c r="BZ56" s="105"/>
+      <c r="CA56" s="105"/>
+      <c r="CB56" s="105"/>
+      <c r="CC56" s="105"/>
+      <c r="CD56" s="105"/>
+      <c r="CE56" s="105"/>
+      <c r="CF56" s="105"/>
+      <c r="CG56" s="105"/>
+      <c r="CH56" s="105"/>
+      <c r="CI56" s="105"/>
+      <c r="CJ56" s="105"/>
+      <c r="CK56" s="105"/>
+      <c r="CL56" s="105"/>
+      <c r="CM56" s="105"/>
+      <c r="CN56" s="105"/>
+      <c r="CO56" s="105"/>
+      <c r="CP56" s="105"/>
+      <c r="CQ56" s="105"/>
+      <c r="CR56" s="105"/>
+      <c r="CS56" s="105"/>
+      <c r="CT56" s="105"/>
+      <c r="CU56" s="105"/>
+      <c r="CV56" s="105"/>
+      <c r="CW56" s="105"/>
+      <c r="CX56" s="105"/>
+      <c r="CY56" s="105"/>
+      <c r="CZ56" s="105"/>
+      <c r="DA56" s="105"/>
+      <c r="DB56" s="105"/>
+      <c r="DC56" s="105"/>
+      <c r="DD56" s="105"/>
+      <c r="DE56" s="105"/>
+      <c r="DF56" s="105"/>
+      <c r="DG56" s="105"/>
+      <c r="DH56" s="105"/>
+      <c r="DI56" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="122">
